--- a/tests/KMC_Student_Database.xlsx
+++ b/tests/KMC_Student_Database.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Kern Medical Code Society\KMC-CheckInWebApp\tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049DC17B-13CD-4FC2-B73E-17FCF5A6BFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="351">
   <si>
     <t>barcode</t>
   </si>
@@ -328,9 +322,6 @@
     <t>rvargas@ox.ac.uk</t>
   </si>
   <si>
-    <t>Literature 300</t>
-  </si>
-  <si>
     <t>Dr. Thompson</t>
   </si>
   <si>
@@ -340,9 +331,6 @@
     <t>Teaching Assistant</t>
   </si>
   <si>
-    <t>English Literature</t>
-  </si>
-  <si>
     <t>University of Oxford</t>
   </si>
   <si>
@@ -436,18 +424,12 @@
     <t>emitchell@nyu.edu</t>
   </si>
   <si>
-    <t>Art History 204</t>
-  </si>
-  <si>
     <t>Dr. Lee</t>
   </si>
   <si>
     <t>Samuel Thompson</t>
   </si>
   <si>
-    <t>Art History</t>
-  </si>
-  <si>
     <t>New York University</t>
   </si>
   <si>
@@ -508,18 +490,12 @@
     <t>bwilson@uchicago.edu</t>
   </si>
   <si>
-    <t>Sociology 411</t>
-  </si>
-  <si>
     <t>Prof. Kumar</t>
   </si>
   <si>
     <t>Emma Martinez</t>
   </si>
   <si>
-    <t>Sociology</t>
-  </si>
-  <si>
     <t>University of Chicago</t>
   </si>
   <si>
@@ -583,18 +559,12 @@
     <t>eyoung@ox.ac.uk</t>
   </si>
   <si>
-    <t>Philosophy 320</t>
-  </si>
-  <si>
     <t>Dr. Black</t>
   </si>
   <si>
     <t>Mason Johnson</t>
   </si>
   <si>
-    <t>Philosophy</t>
-  </si>
-  <si>
     <t>Ethical Studies</t>
   </si>
   <si>
@@ -649,9 +619,6 @@
     <t>hjohnson@stanford.edu</t>
   </si>
   <si>
-    <t>International Relations 301</t>
-  </si>
-  <si>
     <t>Prof. Smith</t>
   </si>
   <si>
@@ -661,9 +628,6 @@
     <t>Student Diplomat</t>
   </si>
   <si>
-    <t>Political Science</t>
-  </si>
-  <si>
     <t>International Negotiations</t>
   </si>
   <si>
@@ -673,9 +637,6 @@
     <t>ijones@harvard.edu</t>
   </si>
   <si>
-    <t>Economics 202</t>
-  </si>
-  <si>
     <t>Dr. Wright</t>
   </si>
   <si>
@@ -685,9 +646,6 @@
     <t>Research Analyst</t>
   </si>
   <si>
-    <t>Economics</t>
-  </si>
-  <si>
     <t>Market Analysis</t>
   </si>
   <si>
@@ -697,9 +655,6 @@
     <t>jlee@berkeley.edu</t>
   </si>
   <si>
-    <t>Media Studies 204</t>
-  </si>
-  <si>
     <t>Prof. Harris</t>
   </si>
   <si>
@@ -709,9 +664,6 @@
     <t>Media Intern</t>
   </si>
   <si>
-    <t>Media and Communications</t>
-  </si>
-  <si>
     <t>Public Relations</t>
   </si>
   <si>
@@ -757,18 +709,12 @@
     <t>mmitchell@princeton.edu</t>
   </si>
   <si>
-    <t>Archaeology 300</t>
-  </si>
-  <si>
     <t>Dr. Brown</t>
   </si>
   <si>
     <t>Oliver King</t>
   </si>
   <si>
-    <t>Archaeology</t>
-  </si>
-  <si>
     <t>Excavation</t>
   </si>
   <si>
@@ -778,9 +724,6 @@
     <t>nwilson@ox.ac.uk</t>
   </si>
   <si>
-    <t>Music Theory 201</t>
-  </si>
-  <si>
     <t>Prof. Bennett</t>
   </si>
   <si>
@@ -790,9 +733,6 @@
     <t>Music Archivist</t>
   </si>
   <si>
-    <t>Music</t>
-  </si>
-  <si>
     <t>Music Composition Analysis</t>
   </si>
   <si>
@@ -844,9 +784,6 @@
     <t>qanderson@columbia.edu</t>
   </si>
   <si>
-    <t>Political Science 220</t>
-  </si>
-  <si>
     <t>Noah Patel</t>
   </si>
   <si>
@@ -862,9 +799,6 @@
     <t>rsmith@nyu.edu</t>
   </si>
   <si>
-    <t>Urban Planning 101</t>
-  </si>
-  <si>
     <t>Prof. Lee</t>
   </si>
   <si>
@@ -872,9 +806,6 @@
   </si>
   <si>
     <t>Urban Intern</t>
-  </si>
-  <si>
-    <t>Urban Studies</t>
   </si>
   <si>
     <t>City Planning</t>
@@ -1141,7 +1072,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1152,7 +1084,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1205,32 +1137,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1241,10 +1179,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1282,71 +1220,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1374,7 +1312,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1397,11 +1335,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1410,13 +1348,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1426,7 +1364,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1435,7 +1373,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1444,7 +1382,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1452,10 +1390,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1520,23 +1458,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,1579 +1516,1579 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>423516</v>
       </c>
       <c r="B2" s="3">
         <v>124152</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>584627</v>
       </c>
       <c r="B3" s="3">
         <v>124653</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>795738</v>
       </c>
       <c r="B4" s="3">
         <v>125234</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>936849</v>
       </c>
       <c r="B5" s="3">
         <v>125815</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>177951</v>
       </c>
       <c r="B6" s="3">
         <v>126396</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>168162</v>
       </c>
       <c r="B7" s="3">
         <v>126977</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>259273</v>
       </c>
       <c r="B8" s="3">
         <v>127558</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>340284</v>
       </c>
       <c r="B9" s="3">
         <v>128139</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>481395</v>
       </c>
       <c r="B10" s="3">
         <v>128720</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>572406</v>
       </c>
       <c r="B11" s="3">
         <v>129301</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>653517</v>
       </c>
       <c r="B12" s="3">
         <v>129882</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>734628</v>
       </c>
       <c r="B13" s="3">
         <v>130463</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J13" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>825739</v>
       </c>
       <c r="B14" s="3">
         <v>131044</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J14" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="5">
+        <v>886850</v>
+      </c>
+      <c r="B15" s="5">
+        <v>131625</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K14" t="s">
+      <c r="D15" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>886850</v>
-      </c>
-      <c r="B15" s="4">
-        <v>131625</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J15" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="5">
+        <v>947961</v>
+      </c>
+      <c r="B16" s="5">
+        <v>132206</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K15" t="s">
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>947961</v>
-      </c>
-      <c r="B16" s="4">
-        <v>132206</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="F16" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E16" t="s">
+      <c r="J16" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F16" t="s">
+      <c r="K16" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G16" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="5">
+        <v>138072</v>
+      </c>
+      <c r="B17" s="5">
+        <v>132787</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="5">
+        <v>229183</v>
+      </c>
+      <c r="B18" s="5">
+        <v>133368</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="5">
+        <v>310294</v>
+      </c>
+      <c r="B19" s="5">
+        <v>133949</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="5">
+        <v>421305</v>
+      </c>
+      <c r="B20" s="5">
+        <v>134530</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="5">
+        <v>512416</v>
+      </c>
+      <c r="B21" s="5">
+        <v>135111</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="5">
+        <v>693627</v>
+      </c>
+      <c r="B22" s="5">
+        <v>135692</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H16" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" t="s">
-        <v>142</v>
-      </c>
-      <c r="J16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>138072</v>
-      </c>
-      <c r="B17" s="4">
-        <v>132787</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="H22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="5">
+        <v>774638</v>
+      </c>
+      <c r="B23" s="5">
+        <v>136273</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="5">
+        <v>865749</v>
+      </c>
+      <c r="B24" s="5">
+        <v>136854</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="5">
+        <v>956860</v>
+      </c>
+      <c r="B25" s="5">
+        <v>137435</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="5">
+        <v>147971</v>
+      </c>
+      <c r="B26" s="5">
+        <v>138016</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="5">
+        <v>238082</v>
+      </c>
+      <c r="B27" s="5">
+        <v>138597</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="5">
+        <v>319193</v>
+      </c>
+      <c r="B28" s="5">
+        <v>139178</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="5">
+        <v>430204</v>
+      </c>
+      <c r="B29" s="5">
+        <v>139759</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="5">
+        <v>521315</v>
+      </c>
+      <c r="B30" s="5">
+        <v>140340</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="5">
+        <v>612426</v>
+      </c>
+      <c r="B31" s="5">
+        <v>140921</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="5">
+        <v>703537</v>
+      </c>
+      <c r="B32" s="5">
+        <v>141502</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="5">
+        <v>794648</v>
+      </c>
+      <c r="B33" s="5">
+        <v>142083</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="5">
+        <v>885759</v>
+      </c>
+      <c r="B34" s="5">
+        <v>142664</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="5">
+        <v>976870</v>
+      </c>
+      <c r="B35" s="5">
+        <v>143245</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="5">
+        <v>167981</v>
+      </c>
+      <c r="B36" s="5">
+        <v>143826</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="5">
+        <v>258092</v>
+      </c>
+      <c r="B37" s="5">
+        <v>144407</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="5">
+        <v>349203</v>
+      </c>
+      <c r="B38" s="5">
+        <v>144988</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="5">
+        <v>360314</v>
+      </c>
+      <c r="B39" s="5">
+        <v>145569</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="5">
+        <v>451425</v>
+      </c>
+      <c r="B40" s="5">
+        <v>146150</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="5">
+        <v>542536</v>
+      </c>
+      <c r="B41" s="5">
+        <v>146731</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="5">
+        <v>633647</v>
+      </c>
+      <c r="B42" s="5">
+        <v>147312</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" t="s">
-        <v>152</v>
-      </c>
-      <c r="K17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>229183</v>
-      </c>
-      <c r="B18" s="4">
-        <v>133368</v>
-      </c>
-      <c r="C18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s">
-        <v>158</v>
-      </c>
-      <c r="I18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>310294</v>
-      </c>
-      <c r="B19" s="4">
-        <v>133949</v>
-      </c>
-      <c r="C19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" t="s">
-        <v>165</v>
-      </c>
-      <c r="I19" t="s">
-        <v>166</v>
-      </c>
-      <c r="J19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="H42" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>421305</v>
-      </c>
-      <c r="B20" s="4">
-        <v>134530</v>
-      </c>
-      <c r="C20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" t="s">
-        <v>173</v>
-      </c>
-      <c r="H20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" t="s">
-        <v>174</v>
-      </c>
-      <c r="J20" t="s">
-        <v>175</v>
-      </c>
-      <c r="K20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>512416</v>
-      </c>
-      <c r="B21" s="4">
-        <v>135111</v>
-      </c>
-      <c r="C21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" t="s">
-        <v>181</v>
-      </c>
-      <c r="H21" t="s">
-        <v>182</v>
-      </c>
-      <c r="I21" t="s">
-        <v>183</v>
-      </c>
-      <c r="J21" t="s">
-        <v>184</v>
-      </c>
-      <c r="K21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>693627</v>
-      </c>
-      <c r="B22" s="4">
-        <v>135692</v>
-      </c>
-      <c r="C22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E22" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" t="s">
-        <v>189</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="J42" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="5">
+        <v>724758</v>
+      </c>
+      <c r="B43" s="5">
+        <v>147893</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H22" t="s">
-        <v>190</v>
-      </c>
-      <c r="I22" t="s">
-        <v>107</v>
-      </c>
-      <c r="J22" t="s">
-        <v>191</v>
-      </c>
-      <c r="K22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>774638</v>
-      </c>
-      <c r="B23" s="4">
-        <v>136273</v>
-      </c>
-      <c r="C23" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" t="s">
-        <v>197</v>
-      </c>
-      <c r="H23" t="s">
-        <v>198</v>
-      </c>
-      <c r="I23" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" t="s">
-        <v>199</v>
-      </c>
-      <c r="K23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>865749</v>
-      </c>
-      <c r="B24" s="4">
-        <v>136854</v>
-      </c>
-      <c r="C24" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" t="s">
-        <v>204</v>
-      </c>
-      <c r="G24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" t="s">
-        <v>205</v>
-      </c>
-      <c r="I24" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" t="s">
-        <v>206</v>
-      </c>
-      <c r="K24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>956860</v>
-      </c>
-      <c r="B25" s="4">
-        <v>137435</v>
-      </c>
-      <c r="C25" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" t="s">
-        <v>211</v>
-      </c>
-      <c r="G25" t="s">
-        <v>212</v>
-      </c>
-      <c r="H25" t="s">
-        <v>213</v>
-      </c>
-      <c r="I25" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" t="s">
-        <v>214</v>
-      </c>
-      <c r="K25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>147971</v>
-      </c>
-      <c r="B26" s="4">
-        <v>138016</v>
-      </c>
-      <c r="C26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" t="s">
-        <v>217</v>
-      </c>
-      <c r="E26" t="s">
-        <v>218</v>
-      </c>
-      <c r="F26" t="s">
-        <v>219</v>
-      </c>
-      <c r="G26" t="s">
-        <v>220</v>
-      </c>
-      <c r="H26" t="s">
-        <v>221</v>
-      </c>
-      <c r="I26" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" t="s">
-        <v>222</v>
-      </c>
-      <c r="K26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>238082</v>
-      </c>
-      <c r="B27" s="4">
-        <v>138597</v>
-      </c>
-      <c r="C27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D27" t="s">
-        <v>225</v>
-      </c>
-      <c r="E27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F27" t="s">
-        <v>227</v>
-      </c>
-      <c r="G27" t="s">
-        <v>228</v>
-      </c>
-      <c r="H27" t="s">
-        <v>229</v>
-      </c>
-      <c r="I27" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" t="s">
-        <v>230</v>
-      </c>
-      <c r="K27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>319193</v>
-      </c>
-      <c r="B28" s="4">
-        <v>139178</v>
-      </c>
-      <c r="C28" t="s">
-        <v>232</v>
-      </c>
-      <c r="D28" t="s">
-        <v>233</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" t="s">
-        <v>234</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" t="s">
-        <v>235</v>
-      </c>
-      <c r="K28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>430204</v>
-      </c>
-      <c r="B29" s="4">
-        <v>139759</v>
-      </c>
-      <c r="C29" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" t="s">
-        <v>238</v>
-      </c>
-      <c r="E29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" t="s">
-        <v>239</v>
-      </c>
-      <c r="G29" t="s">
-        <v>240</v>
-      </c>
-      <c r="H29" t="s">
-        <v>241</v>
-      </c>
-      <c r="I29" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" t="s">
-        <v>242</v>
-      </c>
-      <c r="K29" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>521315</v>
-      </c>
-      <c r="B30" s="4">
-        <v>140340</v>
-      </c>
-      <c r="C30" t="s">
-        <v>244</v>
-      </c>
-      <c r="D30" t="s">
-        <v>245</v>
-      </c>
-      <c r="E30" t="s">
-        <v>246</v>
-      </c>
-      <c r="F30" t="s">
-        <v>247</v>
-      </c>
-      <c r="G30" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" t="s">
-        <v>248</v>
-      </c>
-      <c r="I30" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" t="s">
-        <v>249</v>
-      </c>
-      <c r="K30" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>612426</v>
-      </c>
-      <c r="B31" s="4">
-        <v>140921</v>
-      </c>
-      <c r="C31" t="s">
-        <v>251</v>
-      </c>
-      <c r="D31" t="s">
-        <v>252</v>
-      </c>
-      <c r="E31" t="s">
-        <v>253</v>
-      </c>
-      <c r="F31" t="s">
-        <v>254</v>
-      </c>
-      <c r="G31" t="s">
-        <v>255</v>
-      </c>
-      <c r="H31" t="s">
-        <v>256</v>
-      </c>
-      <c r="I31" t="s">
-        <v>107</v>
-      </c>
-      <c r="J31" t="s">
-        <v>257</v>
-      </c>
-      <c r="K31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>703537</v>
-      </c>
-      <c r="B32" s="4">
-        <v>141502</v>
-      </c>
-      <c r="C32" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" t="s">
-        <v>261</v>
-      </c>
-      <c r="F32" t="s">
-        <v>262</v>
-      </c>
-      <c r="G32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" t="s">
-        <v>263</v>
-      </c>
-      <c r="I32" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" t="s">
-        <v>264</v>
-      </c>
-      <c r="K32" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>794648</v>
-      </c>
-      <c r="B33" s="4">
-        <v>142083</v>
-      </c>
-      <c r="C33" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33" t="s">
-        <v>267</v>
-      </c>
-      <c r="E33" t="s">
-        <v>268</v>
-      </c>
-      <c r="F33" t="s">
-        <v>269</v>
-      </c>
-      <c r="G33" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" t="s">
-        <v>270</v>
-      </c>
-      <c r="I33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J33" t="s">
-        <v>271</v>
-      </c>
-      <c r="K33" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>885759</v>
-      </c>
-      <c r="B34" s="4">
-        <v>142664</v>
-      </c>
-      <c r="C34" t="s">
-        <v>273</v>
-      </c>
-      <c r="D34" t="s">
-        <v>274</v>
-      </c>
-      <c r="E34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" t="s">
-        <v>275</v>
-      </c>
-      <c r="G34" t="s">
-        <v>276</v>
-      </c>
-      <c r="H34" t="s">
-        <v>213</v>
-      </c>
-      <c r="I34" t="s">
-        <v>134</v>
-      </c>
-      <c r="J34" t="s">
-        <v>277</v>
-      </c>
-      <c r="K34" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>976870</v>
-      </c>
-      <c r="B35" s="4">
-        <v>143245</v>
-      </c>
-      <c r="C35" t="s">
-        <v>279</v>
-      </c>
-      <c r="D35" t="s">
-        <v>280</v>
-      </c>
-      <c r="E35" t="s">
-        <v>281</v>
-      </c>
-      <c r="F35" t="s">
-        <v>282</v>
-      </c>
-      <c r="G35" t="s">
-        <v>283</v>
-      </c>
-      <c r="H35" t="s">
-        <v>284</v>
-      </c>
-      <c r="I35" t="s">
-        <v>142</v>
-      </c>
-      <c r="J35" t="s">
-        <v>285</v>
-      </c>
-      <c r="K35" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>167981</v>
-      </c>
-      <c r="B36" s="4">
-        <v>143826</v>
-      </c>
-      <c r="C36" t="s">
-        <v>287</v>
-      </c>
-      <c r="D36" t="s">
-        <v>288</v>
-      </c>
-      <c r="E36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F36" t="s">
-        <v>289</v>
-      </c>
-      <c r="G36" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" t="s">
-        <v>115</v>
-      </c>
-      <c r="I36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J36" t="s">
-        <v>290</v>
-      </c>
-      <c r="K36" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>258092</v>
-      </c>
-      <c r="B37" s="4">
-        <v>144407</v>
-      </c>
-      <c r="C37" t="s">
-        <v>292</v>
-      </c>
-      <c r="D37" t="s">
-        <v>293</v>
-      </c>
-      <c r="E37" t="s">
-        <v>294</v>
-      </c>
-      <c r="F37" t="s">
-        <v>295</v>
-      </c>
-      <c r="G37" t="s">
-        <v>296</v>
-      </c>
-      <c r="H37" t="s">
-        <v>297</v>
-      </c>
-      <c r="I37" t="s">
-        <v>166</v>
-      </c>
-      <c r="J37" t="s">
-        <v>298</v>
-      </c>
-      <c r="K37" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>349203</v>
-      </c>
-      <c r="B38" s="4">
-        <v>144988</v>
-      </c>
-      <c r="C38" t="s">
-        <v>300</v>
-      </c>
-      <c r="D38" t="s">
-        <v>301</v>
-      </c>
-      <c r="E38" t="s">
-        <v>302</v>
-      </c>
-      <c r="F38" t="s">
-        <v>303</v>
-      </c>
-      <c r="G38" t="s">
-        <v>304</v>
-      </c>
-      <c r="H38" t="s">
-        <v>305</v>
-      </c>
-      <c r="I38" t="s">
-        <v>174</v>
-      </c>
-      <c r="J38" t="s">
-        <v>306</v>
-      </c>
-      <c r="K38" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>360314</v>
-      </c>
-      <c r="B39" s="4">
-        <v>145569</v>
-      </c>
-      <c r="C39" t="s">
-        <v>308</v>
-      </c>
-      <c r="D39" t="s">
-        <v>309</v>
-      </c>
-      <c r="E39" t="s">
-        <v>310</v>
-      </c>
-      <c r="F39" t="s">
-        <v>311</v>
-      </c>
-      <c r="G39" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" t="s">
-        <v>312</v>
-      </c>
-      <c r="I39" t="s">
-        <v>313</v>
-      </c>
-      <c r="J39" t="s">
-        <v>314</v>
-      </c>
-      <c r="K39" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>451425</v>
-      </c>
-      <c r="B40" s="4">
-        <v>146150</v>
-      </c>
-      <c r="C40" t="s">
-        <v>316</v>
-      </c>
-      <c r="D40" t="s">
-        <v>317</v>
-      </c>
-      <c r="E40" t="s">
-        <v>318</v>
-      </c>
-      <c r="F40" t="s">
-        <v>319</v>
-      </c>
-      <c r="G40" t="s">
-        <v>320</v>
-      </c>
-      <c r="H40" t="s">
-        <v>61</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="H43" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="J40" t="s">
+      <c r="I43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K43" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>542536</v>
-      </c>
-      <c r="B41" s="4">
-        <v>146731</v>
-      </c>
-      <c r="C41" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="5">
+        <v>815869</v>
+      </c>
+      <c r="B44" s="5">
+        <v>148474</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D44" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E44" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F44" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G41" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G44" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="I41" t="s">
+      <c r="H44" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="J41" t="s">
+      <c r="I44" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="K41" t="s">
+      <c r="J44" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>633647</v>
-      </c>
-      <c r="B42" s="4">
-        <v>147312</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="K44" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D42" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="5">
+        <v>906970</v>
+      </c>
+      <c r="B45" s="5">
+        <v>149055</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D45" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E45" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G42" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="F45" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I42" t="s">
-        <v>174</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="G45" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="K42" t="s">
+      <c r="H45" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>724758</v>
-      </c>
-      <c r="B43" s="4">
-        <v>147893</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="I45" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D43" t="s">
+      <c r="J45" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="K45" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="5">
+        <v>998081</v>
+      </c>
+      <c r="B46" s="5">
+        <v>149636</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="I43" t="s">
-        <v>35</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="D46" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="K43" t="s">
+      <c r="E46" s="4" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>815869</v>
-      </c>
-      <c r="B44" s="4">
-        <v>148474</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="F46" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D44" t="s">
+      <c r="G46" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H46" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="F44" t="s">
+      <c r="I46" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J46" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="H44" t="s">
+      <c r="K46" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="I44" t="s">
-        <v>351</v>
-      </c>
-      <c r="J44" t="s">
-        <v>352</v>
-      </c>
-      <c r="K44" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>906970</v>
-      </c>
-      <c r="B45" s="4">
-        <v>149055</v>
-      </c>
-      <c r="C45" t="s">
-        <v>354</v>
-      </c>
-      <c r="D45" t="s">
-        <v>355</v>
-      </c>
-      <c r="E45" t="s">
-        <v>356</v>
-      </c>
-      <c r="F45" t="s">
-        <v>357</v>
-      </c>
-      <c r="G45" t="s">
-        <v>358</v>
-      </c>
-      <c r="H45" t="s">
-        <v>359</v>
-      </c>
-      <c r="I45" t="s">
-        <v>360</v>
-      </c>
-      <c r="J45" t="s">
-        <v>361</v>
-      </c>
-      <c r="K45" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>998081</v>
-      </c>
-      <c r="B46" s="4">
-        <v>149636</v>
-      </c>
-      <c r="C46" t="s">
-        <v>363</v>
-      </c>
-      <c r="D46" t="s">
-        <v>364</v>
-      </c>
-      <c r="E46" t="s">
-        <v>365</v>
-      </c>
-      <c r="F46" t="s">
-        <v>366</v>
-      </c>
-      <c r="G46" t="s">
-        <v>367</v>
-      </c>
-      <c r="H46" t="s">
-        <v>368</v>
-      </c>
-      <c r="I46" t="s">
-        <v>369</v>
-      </c>
-      <c r="J46" t="s">
-        <v>370</v>
-      </c>
-      <c r="K46" t="s">
-        <v>371</v>
       </c>
     </row>
   </sheetData>
